--- a/_Out/NFDataCfg/Excel/Server.xlsx
+++ b/_Out/NFDataCfg/Excel/Server.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="21760" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="1980" windowHeight="16440" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -88,6 +88,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>服务器</t>
@@ -98,6 +99,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>ID</t>
@@ -122,6 +124,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>作为服务器时：相对客户端的</t>
@@ -132,6 +135,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>port</t>
@@ -201,26 +205,110 @@
     <t>DBServer</t>
   </si>
   <si>
-    <t>TutorialServer_1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>TutorialServer</t>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>lot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>GameServer_1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SlotMachine</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>obby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Server_1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>obby</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Server</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="25">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,6 +332,7 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -256,156 +345,26 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,194 +383,8 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -765,255 +538,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1071,58 +602,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -1452,26 +939,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.2307692307692" customWidth="1"/>
+    <col min="1" max="1" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="34" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="17" spans="1:12">
+    <row r="2" spans="1:12" s="2" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1034,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="17" spans="1:12">
+    <row r="3" spans="1:12" s="2" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
@@ -1585,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="17" spans="1:12">
+    <row r="4" spans="1:12" s="2" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1623,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" ht="17" spans="1:12">
+    <row r="5" spans="1:12" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
@@ -1661,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="17" spans="1:12">
+    <row r="6" spans="1:12" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
@@ -1699,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="17" spans="1:12">
+    <row r="7" spans="1:12" s="3" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
@@ -1737,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="17" spans="1:12">
+    <row r="8" spans="1:12" s="3" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
@@ -1775,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="17" spans="1:12">
+    <row r="9" spans="1:12" s="3" customFormat="1">
       <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
@@ -1813,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="84.75" spans="1:12">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="54">
       <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
@@ -1853,13 +1340,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="13" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>32</v>
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
       </c>
       <c r="D11">
         <v>5000</v>
@@ -1871,33 +1358,33 @@
         <v>33</v>
       </c>
       <c r="G11">
-        <v>16001</v>
+        <v>13001</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3001</v>
       </c>
       <c r="L11" s="18">
-        <v>26001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
+      <c r="A12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="D12">
         <v>5000</v>
@@ -1908,11 +1395,11 @@
       <c r="F12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G12">
-        <v>17001</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>35</v>
+      <c r="G12" s="15">
+        <v>14001</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1921,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="L12" s="18">
         <v>0</v>
@@ -1967,13 +1454,13 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>5000</v>
@@ -1985,10 +1472,10 @@
         <v>33</v>
       </c>
       <c r="G14">
-        <v>13001</v>
+        <v>17001</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1997,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3001</v>
+        <v>0</v>
       </c>
       <c r="L14" s="18">
         <v>0</v>
@@ -2005,13 +1492,13 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>5000</v>
@@ -2023,10 +1510,10 @@
         <v>33</v>
       </c>
       <c r="G15" s="15">
-        <v>14001</v>
+        <v>18001</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2035,21 +1522,21 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="L15" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>48</v>
+      <c r="A16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="D16">
         <v>5000</v>
@@ -2060,34 +1547,34 @@
       <c r="F16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="15">
-        <v>18001</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>47</v>
+      <c r="G16">
+        <v>16001</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" s="18">
-        <v>0</v>
+        <v>26001</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" t="s">
-        <v>51</v>
+      <c r="A17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="D17">
         <v>5000</v>
@@ -2098,34 +1585,72 @@
       <c r="F17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="15">
-        <v>14001</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>44</v>
+      <c r="G17">
+        <v>19001</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>53</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17" s="18">
-        <v>0</v>
+        <v>29001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>5000</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>16001</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
+        <v>26001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F10">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
   </dataValidations>
-  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>